--- a/data/trans_orig/IP16A98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F620A5-0162-4119-9C77-2BC9B73B5A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD63307-47DD-452C-ACB1-1AE804B952B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9026B290-342C-456F-BF64-6C49686B1895}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2705765-57FD-434A-81D5-6312E8A34E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>24,58%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>75,42%</t>
   </si>
   <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>14,29%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,115 +196,115 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>86,6%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
+    <t>Menores según si ha consumido otros medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
     <t>15,95%</t>
@@ -313,31 +313,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>50,23%</t>
+    <t>48,44%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>49,77%</t>
+    <t>51,56%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -346,376 +346,370 @@
     <t>77,68%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>80,59%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>25,82%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>74,18%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>15,09%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>84,91%</t>
   </si>
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>75,65%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>24,35%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>23,91%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>76,09%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E73734-37E0-4EB6-92FF-55DE9D8A777F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C89C4-31DF-49FD-ACD4-C70020E03A44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E72B298-8E27-48CC-93C9-C2C16EC07959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5BED00-7201-41FE-9242-BCEF6BA18FD0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2345,10 +2339,10 @@
         <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2357,13 @@
         <v>23649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -2378,13 +2372,13 @@
         <v>24937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -2393,13 +2387,13 @@
         <v>48585</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2461,13 @@
         <v>25045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2482,13 +2476,13 @@
         <v>21668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2497,13 +2491,13 @@
         <v>46712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2512,13 @@
         <v>98231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -2533,13 +2527,13 @@
         <v>105793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -2548,10 +2542,10 @@
         <v>204025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>158</v>
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8A8DB-7482-43CF-AE58-1E4EE9912F71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781C432E-275F-410D-B576-9614192E7B43}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2771,10 +2765,10 @@
         <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2783,13 +2777,13 @@
         <v>6974</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2798,13 @@
         <v>11769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -2819,13 +2813,13 @@
         <v>7440</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2834,13 +2828,13 @@
         <v>19208</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2902,13 @@
         <v>22974</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2923,13 +2917,13 @@
         <v>17769</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -2938,13 +2932,13 @@
         <v>40743</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2953,13 @@
         <v>91443</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -2974,13 +2968,13 @@
         <v>83472</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>261</v>
@@ -2989,13 +2983,13 @@
         <v>174915</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,10 +3060,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3078,13 +3072,13 @@
         <v>7568</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3093,13 +3087,13 @@
         <v>13839</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,10 +3111,10 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -3129,13 +3123,13 @@
         <v>33787</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -3144,13 +3138,13 @@
         <v>71270</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3212,13 @@
         <v>31842</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3233,13 +3227,13 @@
         <v>29713</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -3248,13 +3242,13 @@
         <v>61555</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>140695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>183</v>
@@ -3284,13 +3278,13 @@
         <v>124699</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -3299,13 +3293,13 @@
         <v>265393</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD63307-47DD-452C-ACB1-1AE804B952B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A049B8E-7B5F-488F-B77B-CF50C8258F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2705765-57FD-434A-81D5-6312E8A34E5F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DE3E0886-37C5-4E43-BC2B-708B43001037}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,169 +136,169 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>86,6%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -307,409 +307,427 @@
     <t>Menores según si ha consumido otros medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
     <t>15,95%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>49,11%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>51,56%</t>
+    <t>50,89%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>80,59%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C89C4-31DF-49FD-ACD4-C70020E03A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C45ED3-5875-48CC-A50D-1D3B4953761F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1239,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>4130</v>
+        <v>3235</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1254,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3235</v>
+        <v>4130</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1290,10 +1308,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>12673</v>
+        <v>19346</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1305,10 +1323,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>19346</v>
+        <v>12673</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1341,25 +1359,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22581</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>23</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>16803</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22581</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1394,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>14259</v>
+        <v>11451</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1409,10 +1427,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>11451</v>
+        <v>14259</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1445,10 +1463,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D8" s="7">
-        <v>85540</v>
+        <v>74789</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1460,10 +1478,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I8" s="7">
-        <v>74789</v>
+        <v>85540</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1496,25 +1514,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>125</v>
+      </c>
+      <c r="D9" s="7">
+        <v>86240</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>142</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>99799</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>125</v>
-      </c>
-      <c r="I9" s="7">
-        <v>86240</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1549,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5086</v>
+        <v>2788</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1564,10 +1582,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>2788</v>
+        <v>5086</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1600,10 +1618,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>32868</v>
+        <v>33007</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1615,10 +1633,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>33007</v>
+        <v>32868</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1651,25 +1669,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7">
+        <v>35795</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>52</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>37954</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>50</v>
-      </c>
-      <c r="I12" s="7">
-        <v>35795</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1704,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>23475</v>
+        <v>17473</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1719,10 +1737,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>17473</v>
+        <v>23475</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1755,10 +1773,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7">
-        <v>131080</v>
+        <v>127143</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1770,10 +1788,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7">
-        <v>127143</v>
+        <v>131080</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1806,25 +1824,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>144616</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>154555</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>144616</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1872,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5BED00-7201-41FE-9242-BCEF6BA18FD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA4D833-9F5F-434C-837F-AB9839A7AE51}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1990,10 +2008,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1401</v>
+        <v>3503</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2005,10 +2023,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3503</v>
+        <v>1401</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2041,10 +2059,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>7385</v>
+        <v>12188</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2056,10 +2074,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>12188</v>
+        <v>7385</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2092,25 +2110,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>8786</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>22</v>
-      </c>
-      <c r="I6" s="7">
-        <v>15691</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2145,10 +2163,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>18422</v>
+        <v>14309</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2160,10 +2178,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>14309</v>
+        <v>18422</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2196,10 +2214,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7">
-        <v>67198</v>
+        <v>68670</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2211,10 +2229,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>68670</v>
+        <v>67198</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2247,25 +2265,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>82979</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>126</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>85620</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>82979</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5221</v>
+        <v>3855</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2315,10 +2333,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>3855</v>
+        <v>5221</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2351,10 +2369,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>23649</v>
+        <v>24937</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2366,10 +2384,10 @@
         <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>24937</v>
+        <v>23649</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2402,25 +2420,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7">
+        <v>28792</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>41</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>28870</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>43</v>
-      </c>
-      <c r="I12" s="7">
-        <v>28792</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2473,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>25045</v>
+        <v>21668</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2470,19 +2488,19 @@
         <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>21668</v>
+        <v>25045</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2491,13 +2509,13 @@
         <v>46712</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,10 +2524,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D14" s="7">
-        <v>98231</v>
+        <v>105793</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>151</v>
@@ -2521,19 +2539,19 @@
         <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I14" s="7">
-        <v>105793</v>
+        <v>98231</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -2542,10 +2560,10 @@
         <v>204025</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>158</v>
@@ -2557,25 +2575,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>192</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>123276</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>192</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127461</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2623,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781C432E-275F-410D-B576-9614192E7B43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B6204E-3E83-43C3-8C30-CC6948F9857D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2744,46 +2762,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2597</v>
+        <v>7699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4376</v>
+        <v>2701</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>6974</v>
+        <v>10399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,49 +2810,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7531</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
-        <v>11769</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
       <c r="I5" s="7">
-        <v>7440</v>
+        <v>12966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>19208</v>
+        <v>20498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,25 +2861,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>14366</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
       <c r="I6" s="7">
-        <v>11816</v>
+        <v>15667</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2876,7 +2894,7 @@
         <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>26182</v>
+        <v>30897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2896,49 +2914,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17398</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
         <v>31</v>
       </c>
-      <c r="D7" s="7">
-        <v>22974</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="7">
-        <v>26</v>
-      </c>
       <c r="I7" s="7">
-        <v>17769</v>
+        <v>24426</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>40743</v>
+        <v>41823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,49 +2965,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>118</v>
+      </c>
+      <c r="D8" s="7">
+        <v>103445</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="7">
         <v>143</v>
       </c>
-      <c r="D8" s="7">
-        <v>91443</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="7">
-        <v>118</v>
-      </c>
       <c r="I8" s="7">
-        <v>83472</v>
+        <v>95598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>261</v>
       </c>
       <c r="N8" s="7">
-        <v>174915</v>
+        <v>199044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,25 +3016,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>144</v>
+      </c>
+      <c r="D9" s="7">
+        <v>120843</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>174</v>
       </c>
-      <c r="D9" s="7">
-        <v>114417</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>144</v>
-      </c>
       <c r="I9" s="7">
-        <v>101241</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3031,7 +3049,7 @@
         <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>215658</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3051,49 +3069,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7646</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>6271</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
       <c r="I10" s="7">
-        <v>7568</v>
+        <v>6390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>13839</v>
+        <v>14036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,49 +3120,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>33996</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="7">
         <v>49</v>
       </c>
-      <c r="D11" s="7">
-        <v>37483</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
       <c r="I11" s="7">
-        <v>33787</v>
+        <v>40121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>71270</v>
+        <v>74117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,25 +3171,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41642</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43754</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>66</v>
-      </c>
       <c r="I12" s="7">
-        <v>41355</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3186,7 +3204,7 @@
         <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>85109</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3206,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>32743</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
         <v>42</v>
       </c>
-      <c r="D13" s="7">
-        <v>31842</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7">
-        <v>43</v>
-      </c>
       <c r="I13" s="7">
-        <v>29713</v>
+        <v>33516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>61555</v>
+        <v>66259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,49 +3275,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>183</v>
+      </c>
+      <c r="D14" s="7">
+        <v>144972</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
         <v>208</v>
       </c>
-      <c r="D14" s="7">
-        <v>140695</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="7">
-        <v>183</v>
-      </c>
       <c r="I14" s="7">
-        <v>124699</v>
+        <v>148685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
       </c>
       <c r="N14" s="7">
-        <v>265393</v>
+        <v>293657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,25 +3326,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>226</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>226</v>
-      </c>
       <c r="I15" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3341,7 +3359,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
